--- a/data/trans_orig/P33A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>604441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>584656</v>
+        <v>586594</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>621495</v>
+        <v>622819</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8629879589719216</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8347394459054932</v>
+        <v>0.8375061852084056</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8873366415566122</v>
+        <v>0.8892274153878955</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>464</v>
@@ -764,19 +764,19 @@
         <v>495234</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>468036</v>
+        <v>468595</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>518270</v>
+        <v>517246</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7155547072921762</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.676257417730272</v>
+        <v>0.6770650496897671</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7488395249432008</v>
+        <v>0.7473594413623743</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1039</v>
@@ -785,19 +785,19 @@
         <v>1099676</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1071455</v>
+        <v>1067410</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1130266</v>
+        <v>1129480</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7897110956963522</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7694446201518381</v>
+        <v>0.7665402191043736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.811678520931876</v>
+        <v>0.8111141978002894</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>95964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78910</v>
+        <v>77586</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115749</v>
+        <v>113811</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1370120410280784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1126633584433876</v>
+        <v>0.1107725846121048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1652605540945066</v>
+        <v>0.1624938147915948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>181</v>
@@ -835,19 +835,19 @@
         <v>196864</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>173828</v>
+        <v>174852</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>224062</v>
+        <v>223503</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2844452927078238</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2511604750567992</v>
+        <v>0.2526405586376256</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.323742582269728</v>
+        <v>0.3229349503102328</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>277</v>
@@ -856,19 +856,19 @@
         <v>292828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>262238</v>
+        <v>263024</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>321049</v>
+        <v>325094</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2102889043036477</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.188321479068124</v>
+        <v>0.1888858021997109</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2305553798481619</v>
+        <v>0.2334597808956268</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>854298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>828977</v>
+        <v>830090</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>878171</v>
+        <v>878567</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8433993678599429</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8184016659929434</v>
+        <v>0.8195007681750682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8669683400567245</v>
+        <v>0.8673592107375553</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>697</v>
@@ -981,19 +981,19 @@
         <v>766446</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>739064</v>
+        <v>738503</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>795957</v>
+        <v>793006</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7440194128855178</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7174387313702624</v>
+        <v>0.7168932829060465</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7726667737444984</v>
+        <v>0.7698014629364243</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1484</v>
@@ -1002,19 +1002,19 @@
         <v>1620744</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1578211</v>
+        <v>1582761</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1657647</v>
+        <v>1660873</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7932905397358686</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.772472052079957</v>
+        <v>0.7746992061572651</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8113528451532714</v>
+        <v>0.8129319387074344</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>158624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>134751</v>
+        <v>134355</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>183945</v>
+        <v>182832</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1566006321400572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1330316599432756</v>
+        <v>0.1326407892624452</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1815983340070572</v>
+        <v>0.1804992318249318</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>241</v>
@@ -1052,19 +1052,19 @@
         <v>263697</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>234186</v>
+        <v>237137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>291079</v>
+        <v>291640</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2559805871144822</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2273332262555016</v>
+        <v>0.2301985370635757</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2825612686297377</v>
+        <v>0.2831067170939536</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>385</v>
@@ -1073,19 +1073,19 @@
         <v>422321</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>385418</v>
+        <v>382192</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>464854</v>
+        <v>460304</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2067094602641314</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1886471548467285</v>
+        <v>0.1870680612925654</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2275279479200428</v>
+        <v>0.2253007938427349</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>636401</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>614326</v>
+        <v>616258</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>656171</v>
+        <v>657249</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8459239553031713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8165814719061293</v>
+        <v>0.8191493460819466</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8722028675816652</v>
+        <v>0.8736355420390892</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>514</v>
@@ -1198,19 +1198,19 @@
         <v>567701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>539597</v>
+        <v>543124</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>591196</v>
+        <v>592109</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7352778350130864</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6988781703387351</v>
+        <v>0.7034458468466774</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7657082801105902</v>
+        <v>0.7668915552197167</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1089</v>
@@ -1219,19 +1219,19 @@
         <v>1204102</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1169518</v>
+        <v>1170873</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1233778</v>
+        <v>1234094</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7898832421370482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7671964071474361</v>
+        <v>0.7680850670022008</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8093502243027566</v>
+        <v>0.8095579373022519</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>115914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96144</v>
+        <v>95066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>137989</v>
+        <v>136057</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1540760446968287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1277971324183351</v>
+        <v>0.1263644579609109</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1834185280938709</v>
+        <v>0.1808506539180535</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>186</v>
@@ -1269,19 +1269,19 @@
         <v>204389</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>180894</v>
+        <v>179981</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>232493</v>
+        <v>228966</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2647221649869136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2342917198894096</v>
+        <v>0.2331084447802832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3011218296612649</v>
+        <v>0.2965541531533226</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>295</v>
@@ -1290,19 +1290,19 @@
         <v>320303</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>290627</v>
+        <v>290311</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>354887</v>
+        <v>353532</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2101167578629518</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1906497756972433</v>
+        <v>0.1904420626977481</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2328035928525639</v>
+        <v>0.2319149329977992</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>791760</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>768247</v>
+        <v>768314</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>815346</v>
+        <v>812078</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.845901794804319</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8207805844151548</v>
+        <v>0.8208527639059704</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8711009196980625</v>
+        <v>0.8676092055529935</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>721</v>
@@ -1415,19 +1415,19 @@
         <v>760503</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>731617</v>
+        <v>728102</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>787257</v>
+        <v>789227</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7330560569356548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7052121764468556</v>
+        <v>0.7018246371903963</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7588442546706867</v>
+        <v>0.7607436768719626</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1481</v>
@@ -1436,19 +1436,19 @@
         <v>1552263</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1514678</v>
+        <v>1513883</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1588384</v>
+        <v>1586980</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7865784231826281</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7675329699107254</v>
+        <v>0.7671301571110667</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8048820008220712</v>
+        <v>0.804170674337835</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>144235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>120649</v>
+        <v>123917</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>167748</v>
+        <v>167681</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1540982051956809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1288990803019376</v>
+        <v>0.1323907944470064</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1792194155848453</v>
+        <v>0.1791472360940295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>268</v>
@@ -1486,19 +1486,19 @@
         <v>276939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>250185</v>
+        <v>248215</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>305825</v>
+        <v>309340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2669439430643452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2411557453293134</v>
+        <v>0.2392563231280374</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2947878235531445</v>
+        <v>0.2981753628096037</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>407</v>
@@ -1507,19 +1507,19 @@
         <v>421174</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>385053</v>
+        <v>386457</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>458759</v>
+        <v>459554</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2134215768173719</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1951179991779289</v>
+        <v>0.1958293256621651</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2324670300892746</v>
+        <v>0.2328698428889333</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>2886901</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2842146</v>
+        <v>2845025</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2928189</v>
+        <v>2930440</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8486796192072714</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8355227235786861</v>
+        <v>0.8363689975158747</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8608174005569598</v>
+        <v>0.8614790309559898</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2396</v>
@@ -1632,19 +1632,19 @@
         <v>2589885</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2536982</v>
+        <v>2537173</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2641765</v>
+        <v>2639494</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.73330991961533</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7183307788989737</v>
+        <v>0.7183848724880929</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7479994395276697</v>
+        <v>0.7473563928724799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5093</v>
@@ -1653,19 +1653,19 @@
         <v>5476786</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5405869</v>
+        <v>5401811</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5540248</v>
+        <v>5544177</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7899120539039995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7796837855505699</v>
+        <v>0.7790984735029828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7990651763573907</v>
+        <v>0.7996317895769098</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>514737</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>473449</v>
+        <v>471198</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>559492</v>
+        <v>556613</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1513203807927286</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1391825994430401</v>
+        <v>0.1385209690440102</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1644772764213137</v>
+        <v>0.1636310024841253</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>876</v>
@@ -1703,19 +1703,19 @@
         <v>941889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>890009</v>
+        <v>892280</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>994792</v>
+        <v>994601</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.26669008038467</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2520005604723302</v>
+        <v>0.2526436071275203</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2816692211010262</v>
+        <v>0.2816151275119073</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1364</v>
@@ -1724,19 +1724,19 @@
         <v>1456626</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1393164</v>
+        <v>1389235</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1527543</v>
+        <v>1531601</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2100879460960004</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2009348236426092</v>
+        <v>0.2003682104230902</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2203162144494301</v>
+        <v>0.2209015264970167</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>566236</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>546312</v>
+        <v>547441</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>585708</v>
+        <v>584772</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8451744061263545</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8154353360256268</v>
+        <v>0.8171201458727843</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8742382282576904</v>
+        <v>0.8728409544959103</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>483</v>
@@ -2089,19 +2089,19 @@
         <v>487437</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>463261</v>
+        <v>464878</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>509590</v>
+        <v>509479</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7319311026526253</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6956287383858294</v>
+        <v>0.6980575523856166</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7651966032844914</v>
+        <v>0.7650296220719387</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1030</v>
@@ -2110,19 +2110,19 @@
         <v>1053673</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1019833</v>
+        <v>1022238</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1083466</v>
+        <v>1083122</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7887224474068476</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7633911456457776</v>
+        <v>0.7651918780035797</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8110235066025082</v>
+        <v>0.8107662670794107</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>103728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>84256</v>
+        <v>85192</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>123652</v>
+        <v>122523</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1548255938736455</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1257617717423097</v>
+        <v>0.1271590455040898</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1845646639743733</v>
+        <v>0.1828798541272157</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>176</v>
@@ -2160,19 +2160,19 @@
         <v>178523</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>156370</v>
+        <v>156481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>202699</v>
+        <v>201082</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2680688973473747</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2348033967155087</v>
+        <v>0.2349703779280613</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3043712616141707</v>
+        <v>0.3019424476143833</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>276</v>
@@ -2181,19 +2181,19 @@
         <v>282251</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>252458</v>
+        <v>252802</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>316091</v>
+        <v>313686</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2112775525931524</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1889764933974918</v>
+        <v>0.1892337329205893</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2366088543542225</v>
+        <v>0.2348081219964204</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>854025</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>830709</v>
+        <v>826642</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>877562</v>
+        <v>874281</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.851824853176086</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8285689755449012</v>
+        <v>0.8245118959459872</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8753008740515449</v>
+        <v>0.8720286444743937</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>698</v>
@@ -2306,19 +2306,19 @@
         <v>740993</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>706507</v>
+        <v>710546</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>766644</v>
+        <v>772039</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7230474803310706</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6893972885359814</v>
+        <v>0.693337837804367</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7480770659377906</v>
+        <v>0.7533415609421746</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1494</v>
@@ -2327,19 +2327,19 @@
         <v>1595018</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1552824</v>
+        <v>1550943</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1630808</v>
+        <v>1630734</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7867299745873654</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7659182974739209</v>
+        <v>0.7649904124342496</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8043830710466645</v>
+        <v>0.8043468033803082</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>148558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>125021</v>
+        <v>128302</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171874</v>
+        <v>175941</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.148175146823914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1246991259484551</v>
+        <v>0.1279713555256064</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1714310244550989</v>
+        <v>0.1754881040540129</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>262</v>
@@ -2377,19 +2377,19 @@
         <v>283826</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>258175</v>
+        <v>252780</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>318312</v>
+        <v>314273</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2769525196689294</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2519229340622094</v>
+        <v>0.2466584390578254</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3106027114640188</v>
+        <v>0.3066621621956331</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>398</v>
@@ -2398,19 +2398,19 @@
         <v>432384</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>396594</v>
+        <v>396668</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>474578</v>
+        <v>476459</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2132700254126347</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1956169289533355</v>
+        <v>0.1956531966196919</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.234081702526079</v>
+        <v>0.2350095875657504</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>657574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>637187</v>
+        <v>637243</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>675080</v>
+        <v>674713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8668241929858428</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8399507010388669</v>
+        <v>0.8400245524052111</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8899013993090962</v>
+        <v>0.8894178661746546</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>568</v>
@@ -2523,19 +2523,19 @@
         <v>603804</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>579194</v>
+        <v>581171</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>624784</v>
+        <v>627094</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7768156287319405</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7451535873557721</v>
+        <v>0.7476976536695824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8038070020665909</v>
+        <v>0.8067790109073059</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1171</v>
@@ -2544,19 +2544,19 @@
         <v>1261378</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1227981</v>
+        <v>1229373</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1290483</v>
+        <v>1290644</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8212725535774814</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.799528512540317</v>
+        <v>0.8004342177559128</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.840222645284904</v>
+        <v>0.8403278211817665</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>101027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83521</v>
+        <v>83888</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>121414</v>
+        <v>121358</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1331758070141573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.110098600690904</v>
+        <v>0.1105821338253454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.160049298961133</v>
+        <v>0.1599754475947888</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>162</v>
@@ -2594,19 +2594,19 @@
         <v>173477</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>152497</v>
+        <v>150187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>198087</v>
+        <v>196110</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2231843712680595</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1961929979334091</v>
+        <v>0.1932209890926942</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2548464126442279</v>
+        <v>0.2523023463304177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>254</v>
@@ -2615,19 +2615,19 @@
         <v>274504</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>245399</v>
+        <v>245238</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>307901</v>
+        <v>306509</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1787274464225186</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.159777354715096</v>
+        <v>0.1596721788182334</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2004714874596828</v>
+        <v>0.1995657822440874</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>748796</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>723658</v>
+        <v>721613</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>773554</v>
+        <v>770578</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8080968039764119</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7809676046760679</v>
+        <v>0.7787603675900346</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.834815658219425</v>
+        <v>0.8316037119195461</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>684</v>
@@ -2740,19 +2740,19 @@
         <v>744575</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>716410</v>
+        <v>717748</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>773757</v>
+        <v>774926</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7229625086683051</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6956147504840002</v>
+        <v>0.6969132834419419</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7512966450326291</v>
+        <v>0.7524316934829217</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1436</v>
@@ -2761,19 +2761,19 @@
         <v>1493372</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1455995</v>
+        <v>1456527</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1527264</v>
+        <v>1530101</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7632826588667094</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7441789769854348</v>
+        <v>0.7444506977165145</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7806056108391035</v>
+        <v>0.7820555375665103</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>177821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>153063</v>
+        <v>156039</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>202959</v>
+        <v>205004</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1919031960235881</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1651843417805748</v>
+        <v>0.168396288080454</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.219032395323932</v>
+        <v>0.2212396324099654</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>263</v>
@@ -2811,19 +2811,19 @@
         <v>285320</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>256138</v>
+        <v>254969</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>313485</v>
+        <v>312147</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2770374913316949</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.248703354967371</v>
+        <v>0.2475683065170783</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3043852495159998</v>
+        <v>0.303086716558058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>434</v>
@@ -2832,19 +2832,19 @@
         <v>463140</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>429248</v>
+        <v>426411</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>500517</v>
+        <v>499985</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2367173411332906</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2193943891608966</v>
+        <v>0.2179444624334896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2558210230145652</v>
+        <v>0.2555493022834852</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>2826631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2782287</v>
+        <v>2781413</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2866530</v>
+        <v>2868051</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8418193306372436</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8286130561075479</v>
+        <v>0.8283526230432625</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8537020422890653</v>
+        <v>0.8541549090160839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2433</v>
@@ -2957,19 +2957,19 @@
         <v>2576809</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2520654</v>
+        <v>2523727</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2623618</v>
+        <v>2632707</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7366616000648941</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7206079959339199</v>
+        <v>0.7214863274920306</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7500434816736201</v>
+        <v>0.7526417624554893</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5131</v>
@@ -2978,19 +2978,19 @@
         <v>5403440</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5326679</v>
+        <v>5335318</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5469743</v>
+        <v>5470915</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7881652949642197</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7769686467501283</v>
+        <v>0.7782287879894464</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7978364528565328</v>
+        <v>0.7980074749237784</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>531133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>491234</v>
+        <v>489713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>575477</v>
+        <v>576351</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1581806693627564</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1462979577109347</v>
+        <v>0.145845090983916</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1713869438924522</v>
+        <v>0.1716473769567373</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>863</v>
@@ -3028,19 +3028,19 @@
         <v>921146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>874337</v>
+        <v>865248</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>977301</v>
+        <v>974228</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2633383999351059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.24995651832638</v>
+        <v>0.2473582375445108</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2793920040660801</v>
+        <v>0.27851367250797</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1362</v>
@@ -3049,19 +3049,19 @@
         <v>1452279</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1385976</v>
+        <v>1384804</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1529040</v>
+        <v>1520401</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2118347050357803</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2021635471434671</v>
+        <v>0.2019925250762215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2230313532498716</v>
+        <v>0.2217712120105536</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>580132</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>561138</v>
+        <v>559141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>597087</v>
+        <v>598295</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8425032276216459</v>
+        <v>0.8425032276216461</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8149191356393471</v>
+        <v>0.8120186456112864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8671262243186554</v>
+        <v>0.868881057737113</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>913</v>
@@ -3414,19 +3414,19 @@
         <v>546090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>528696</v>
+        <v>527544</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>566358</v>
+        <v>562846</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7469898597636503</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7231971155384669</v>
+        <v>0.7216208295202192</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7747140251920694</v>
+        <v>0.7699103879816621</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1519</v>
@@ -3435,19 +3435,19 @@
         <v>1126222</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1097220</v>
+        <v>1098303</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1153742</v>
+        <v>1152967</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7933177367538107</v>
+        <v>0.7933177367538108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7728885633962799</v>
+        <v>0.7736519038294338</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.812702985701845</v>
+        <v>0.8121574334904604</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>108449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91494</v>
+        <v>90286</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127443</v>
+        <v>129440</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.157496772378354</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1328737756813448</v>
+        <v>0.1311189422628868</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1850808643606531</v>
+        <v>0.1879813543887136</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>323</v>
@@ -3485,19 +3485,19 @@
         <v>184964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>164696</v>
+        <v>168208</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>202358</v>
+        <v>203510</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2530101402363497</v>
+        <v>0.2530101402363498</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2252859748079302</v>
+        <v>0.2300896120183378</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2768028844615331</v>
+        <v>0.2783791704797809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>445</v>
@@ -3506,19 +3506,19 @@
         <v>293413</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>265893</v>
+        <v>266668</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>322415</v>
+        <v>321332</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2066822632461894</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1872970142981554</v>
+        <v>0.1878425665095395</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.22711143660372</v>
+        <v>0.2263480961705663</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>875593</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>849148</v>
+        <v>846012</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>899171</v>
+        <v>900165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.838546619210868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8132209529014853</v>
+        <v>0.8102172369468258</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8611274358777554</v>
+        <v>0.8620793968760893</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1106</v>
@@ -3631,19 +3631,19 @@
         <v>796733</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>769405</v>
+        <v>774170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>818545</v>
+        <v>819811</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7480334431056227</v>
+        <v>0.7480334431056228</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7223752308887472</v>
+        <v>0.7268494240480575</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7685116930054916</v>
+        <v>0.76970055572548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1897</v>
@@ -3652,19 +3652,19 @@
         <v>1672326</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1635980</v>
+        <v>1634351</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1706128</v>
+        <v>1708320</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7928410702894308</v>
+        <v>0.7928410702894306</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7756095917189851</v>
+        <v>0.7748374219821994</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8088664905520282</v>
+        <v>0.8099054300710462</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>168586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>145008</v>
+        <v>144014</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>195031</v>
+        <v>198167</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1614533807891319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1388725641222446</v>
+        <v>0.1379206031239107</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1867790470985148</v>
+        <v>0.1897827630531743</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>401</v>
@@ -3702,19 +3702,19 @@
         <v>268371</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>246559</v>
+        <v>245293</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>295699</v>
+        <v>290934</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2519665568943771</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2314883069945087</v>
+        <v>0.2302994442745203</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2776247691112532</v>
+        <v>0.273150575951943</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>570</v>
@@ -3723,19 +3723,19 @@
         <v>436957</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>403155</v>
+        <v>400963</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>473303</v>
+        <v>474932</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2071589297105694</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1911335094479719</v>
+        <v>0.1900945699289538</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2243904082810149</v>
+        <v>0.225162578017801</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>660434</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>634648</v>
+        <v>637088</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>681854</v>
+        <v>683113</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8275115250286276</v>
+        <v>0.8275115250286277</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7952022399754233</v>
+        <v>0.7982601068310146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8543513738249207</v>
+        <v>0.8559285281634952</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>769</v>
@@ -3848,19 +3848,19 @@
         <v>599842</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>576406</v>
+        <v>575501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>623324</v>
+        <v>620175</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7474733848003045</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.718269020961139</v>
+        <v>0.7171416430523778</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7767340259165381</v>
+        <v>0.7728101572497403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1312</v>
@@ -3869,19 +3869,19 @@
         <v>1260275</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1229956</v>
+        <v>1225515</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1296947</v>
+        <v>1292904</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7873825218593411</v>
+        <v>0.787382521859341</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7684400696481097</v>
+        <v>0.7656657418835863</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8102942469700108</v>
+        <v>0.8077684421411334</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>137662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116242</v>
+        <v>114983</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>163448</v>
+        <v>161008</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1724884749713724</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1456486261750794</v>
+        <v>0.144071471836505</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2047977600245769</v>
+        <v>0.2017398931689856</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>268</v>
@@ -3919,19 +3919,19 @@
         <v>202651</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>179169</v>
+        <v>182318</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>226087</v>
+        <v>226992</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2525266151996955</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.223265974083462</v>
+        <v>0.2271898427502598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2817309790388611</v>
+        <v>0.2828583569476223</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>396</v>
@@ -3940,19 +3940,19 @@
         <v>340313</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>303641</v>
+        <v>307684</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>370632</v>
+        <v>375073</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.212617478140659</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1897057530299893</v>
+        <v>0.1922315578588664</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2315599303518901</v>
+        <v>0.2343342581164137</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>799133</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>774913</v>
+        <v>776231</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>823392</v>
+        <v>823626</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8113008679901457</v>
+        <v>0.8113008679901458</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7867118828260276</v>
+        <v>0.7880500991719628</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8359293627888243</v>
+        <v>0.836166615028878</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1107</v>
@@ -4065,19 +4065,19 @@
         <v>799008</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>771172</v>
+        <v>767980</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>825059</v>
+        <v>823696</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7204959215334386</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6953956402388435</v>
+        <v>0.6925174491786631</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7439870849974695</v>
+        <v>0.7427585463024666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1904</v>
@@ -4086,19 +4086,19 @@
         <v>1598141</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1562324</v>
+        <v>1556428</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1634966</v>
+        <v>1633088</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7632104865286673</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.746106048807344</v>
+        <v>0.743290294618471</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7807969434963794</v>
+        <v>0.779899904901981</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>185869</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>161610</v>
+        <v>161376</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>210089</v>
+        <v>208771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1886991320098544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1640706372111757</v>
+        <v>0.1638333849711223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2132881171739725</v>
+        <v>0.2119499008280372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>445</v>
@@ -4136,19 +4136,19 @@
         <v>309961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>283910</v>
+        <v>285273</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>337797</v>
+        <v>340989</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2795040784665614</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2560129150025305</v>
+        <v>0.2572414536975335</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3046043597611566</v>
+        <v>0.3074825508213369</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>651</v>
@@ -4157,19 +4157,19 @@
         <v>495830</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>459005</v>
+        <v>460883</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>531647</v>
+        <v>537543</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2367895134713328</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2192030565036207</v>
+        <v>0.220100095098019</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.253893951192656</v>
+        <v>0.256709705381529</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>2915291</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2869599</v>
+        <v>2868162</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2962724</v>
+        <v>2964273</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8291834018817611</v>
+        <v>0.8291834018817612</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.816187322381325</v>
+        <v>0.8157785977722531</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8426746019202755</v>
+        <v>0.8431150226549353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3895</v>
@@ -4282,19 +4282,19 @@
         <v>2741673</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2694643</v>
+        <v>2695051</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2790230</v>
+        <v>2789002</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.739469830589527</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7267852252604039</v>
+        <v>0.7268951485169785</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7525662586504011</v>
+        <v>0.7522350662302815</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6632</v>
@@ -4303,19 +4303,19 @@
         <v>5656964</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5584684</v>
+        <v>5588124</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5720795</v>
+        <v>5721669</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7831358020422057</v>
+        <v>0.7831358020422056</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7731295489654819</v>
+        <v>0.7736057071347595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7919723987592674</v>
+        <v>0.7920933387191219</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>600567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>553134</v>
+        <v>551585</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>646259</v>
+        <v>647696</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1708165981182388</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1573253980797246</v>
+        <v>0.1568849773450648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.183812677618675</v>
+        <v>0.184221402227747</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1437</v>
@@ -4353,19 +4353,19 @@
         <v>965947</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>917390</v>
+        <v>918618</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1012977</v>
+        <v>1012569</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.260530169410473</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2474337413495989</v>
+        <v>0.2477649337697185</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.273214774739596</v>
+        <v>0.2731048514830218</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2062</v>
@@ -4374,19 +4374,19 @@
         <v>1566514</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1502683</v>
+        <v>1501809</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1638794</v>
+        <v>1635354</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2168641979577944</v>
+        <v>0.2168641979577945</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2080276012407326</v>
+        <v>0.2079066612808781</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2268704510345181</v>
+        <v>0.2263942928652405</v>
       </c>
     </row>
     <row r="18">
